--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -450,12 +450,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>munni37</t>
+          <t>munni374</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36562356354</t>
+          <t>365623563545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>storey</t>
+          <t>store</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
